--- a/RouletteStrategy/Spreadsheets/BoundingDescendingWinEV.xlsx
+++ b/RouletteStrategy/Spreadsheets/BoundingDescendingWinEV.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>1 to 25, .25, Columns</t>
   </si>
@@ -35,7 +35,46 @@
     <t>Solution</t>
   </si>
   <si>
-    <t>Bound:</t>
+    <t>1 to 25, .50 Lines</t>
+  </si>
+  <si>
+    <t>1 to 25, 1 Corners</t>
+  </si>
+  <si>
+    <t>1 to 25, 1 Splits</t>
+  </si>
+  <si>
+    <t>Bound: y = (max/total_rolls)x</t>
+  </si>
+  <si>
+    <t>Bound: y = (25/10)x</t>
+  </si>
+  <si>
+    <t>Bound: y = (25/17)</t>
+  </si>
+  <si>
+    <t>Bound: y = (25/18)x</t>
+  </si>
+  <si>
+    <t>Bound: y = (25/30)x</t>
+  </si>
+  <si>
+    <t>1 to 25, 1, Singles</t>
+  </si>
+  <si>
+    <t>Starting point: max - (1 - (payout_factor/37))(max)</t>
+  </si>
+  <si>
+    <t>rise = max_bet - starting point</t>
+  </si>
+  <si>
+    <t>y = (rise/run)x + starting point</t>
+  </si>
+  <si>
+    <t>run = total_rolls ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Bound: </t>
   </si>
 </sst>
 </file>
@@ -88,6 +127,5659 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E163-4794-9FA5-0B7437814334}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E163-4794-9FA5-0B7437814334}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="485761512"/>
+        <c:axId val="485759872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="485761512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485759872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="485759872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485761512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$16:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-953D-49B0-944E-90806B4518D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$16:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.4705882352941178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9411764705882355</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4117647058823533</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3529411764705888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8235294117647065</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.294117647058824</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.764705882352942</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.23529411764706</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.705882352941178</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.176470588235297</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.647058823529413</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.117647058823529</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.588235294117649</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.058823529411768</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.529411764705884</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-953D-49B0-944E-90806B4518D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="483333408"/>
+        <c:axId val="483334392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="483333408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483334392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="483334392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483333408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$36:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E372-4218-BD5D-6C48815F6BF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$36:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$36:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.3888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7222222222222214</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.277777777777777</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.055555555555554</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.444444444444443</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.611111111111111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E372-4218-BD5D-6C48815F6BF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="489019504"/>
+        <c:axId val="489020160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="489019504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489020160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="489020160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489019504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$57:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$57:$B$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F504-4873-A27D-CDB27FC5B51F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$57:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$57:$C$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.1666666666666679</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24.166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F504-4873-A27D-CDB27FC5B51F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="489087160"/>
+        <c:axId val="489088472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="489087160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489088472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="489088472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489087160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$89:$A$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$89:$B$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-84F6-47D3-BC9D-B1F7C56266E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="486907648"/>
+        <c:axId val="486908632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="486907648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486908632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="486908632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486907648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE5E2724-ED1D-4684-956C-354FA6C9F20A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D695766B-E782-4769-836F-F98C20728EB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0EF4698-8065-4AE5-B2F7-D3F1D5CAC5CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C284325C-7CA4-49BE-A134-8968121D090C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0024F582-1BBF-4814-B831-5880C0184588}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,21 +6079,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:M127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="34.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -409,10 +6110,1288 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>((25/10)*A3)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.25</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C12" si="0">((25/10)*A4)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2.25</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3.5</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7.5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>11.25</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>16.75</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1.5</v>
+      </c>
+      <c r="C16">
+        <f>((25/17)*A16)</f>
+        <v>1.4705882352941178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C32" si="1">((25/17)*A17)</f>
+        <v>2.9411764705882355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>4.4117647058823533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>2.5</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>5.882352941176471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>7.3529411764705888</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>3.5</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>8.8235294117647065</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>10.294117647058824</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>11.764705882352942</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>13.23529411764706</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>14.705882352941178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>8.5</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>16.176470588235297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>17.647058823529413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>19.117647058823529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>14.5</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>20.588235294117649</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>17.5</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>22.058823529411768</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>23.529411764705884</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <f>((25/18)*A36)</f>
+        <v>1.3888888888888888</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:C53" si="2">((25/18)*A37)</f>
+        <v>2.7777777777777777</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666661</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555554</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>6.9444444444444446</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333321</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="2"/>
+        <v>9.7222222222222214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="2"/>
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="2"/>
+        <v>13.888888888888889</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="2"/>
+        <v>15.277777777777777</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="2"/>
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>13</v>
+      </c>
+      <c r="B48">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="2"/>
+        <v>18.055555555555554</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>14</v>
+      </c>
+      <c r="B49">
+        <v>17</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="2"/>
+        <v>19.444444444444443</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>15</v>
+      </c>
+      <c r="B50">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="2"/>
+        <v>20.833333333333332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>16</v>
+      </c>
+      <c r="B51">
+        <v>21</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="2"/>
+        <v>22.222222222222221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>17</v>
+      </c>
+      <c r="B52">
+        <v>23</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="2"/>
+        <v>23.611111111111111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>18</v>
+      </c>
+      <c r="B53">
+        <v>25</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <f>((25/30)*A57)</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ref="C58:C86" si="3">((25/30)*A58)</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="3"/>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="3"/>
+        <v>5.8333333333333339</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="3"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>9</v>
+      </c>
+      <c r="B65">
+        <v>12</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>10</v>
+      </c>
+      <c r="B66">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>11</v>
+      </c>
+      <c r="B67">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="3"/>
+        <v>9.1666666666666679</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>12</v>
+      </c>
+      <c r="B68">
+        <v>13</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>13</v>
+      </c>
+      <c r="B69">
+        <v>13</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>10.833333333333334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>14</v>
+      </c>
+      <c r="B70">
+        <v>13</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>11.666666666666668</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>15</v>
+      </c>
+      <c r="B71">
+        <v>14</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>16</v>
+      </c>
+      <c r="B72">
+        <v>14</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>17</v>
+      </c>
+      <c r="B73">
+        <v>15</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>14.166666666666668</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>18</v>
+      </c>
+      <c r="B74">
+        <v>15</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>19</v>
+      </c>
+      <c r="B75">
+        <v>15</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="3"/>
+        <v>15.833333333333334</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>20</v>
+      </c>
+      <c r="B76">
+        <v>16</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="3"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>21</v>
+      </c>
+      <c r="B77">
+        <v>16</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>22</v>
+      </c>
+      <c r="B78">
+        <v>17</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="3"/>
+        <v>18.333333333333336</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>23</v>
+      </c>
+      <c r="B79">
+        <v>18</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="3"/>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>24</v>
+      </c>
+      <c r="B80">
+        <v>19</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>25</v>
+      </c>
+      <c r="B81">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="3"/>
+        <v>20.833333333333336</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>26</v>
+      </c>
+      <c r="B82">
+        <v>21</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="3"/>
+        <v>21.666666666666668</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>27</v>
+      </c>
+      <c r="B83">
+        <v>22</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="3"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>28</v>
+      </c>
+      <c r="B84">
+        <v>23</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="3"/>
+        <v>23.333333333333336</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>29</v>
+      </c>
+      <c r="B85">
+        <v>24</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="3"/>
+        <v>24.166666666666668</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>30</v>
+      </c>
+      <c r="B86">
+        <v>25</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <v>19</v>
+      </c>
+      <c r="M90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>20</v>
+      </c>
+      <c r="M91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92">
+        <v>20</v>
+      </c>
+      <c r="M92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>5</v>
+      </c>
+      <c r="B93">
+        <v>20</v>
+      </c>
+      <c r="M93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>6</v>
+      </c>
+      <c r="B94">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>7</v>
+      </c>
+      <c r="B95">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>8</v>
+      </c>
+      <c r="B96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>9</v>
+      </c>
+      <c r="B97">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>10</v>
+      </c>
+      <c r="B98">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>11</v>
+      </c>
+      <c r="B99">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>12</v>
+      </c>
+      <c r="B100">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>13</v>
+      </c>
+      <c r="B101">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>14</v>
+      </c>
+      <c r="B102">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>15</v>
+      </c>
+      <c r="B103">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>16</v>
+      </c>
+      <c r="B104">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>17</v>
+      </c>
+      <c r="B105">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>18</v>
+      </c>
+      <c r="B106">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>19</v>
+      </c>
+      <c r="B107">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>20</v>
+      </c>
+      <c r="B108">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>21</v>
+      </c>
+      <c r="B109">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>22</v>
+      </c>
+      <c r="B110">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>23</v>
+      </c>
+      <c r="B111">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>24</v>
+      </c>
+      <c r="B112">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>25</v>
+      </c>
+      <c r="B113">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>26</v>
+      </c>
+      <c r="B114">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>27</v>
+      </c>
+      <c r="B115">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>28</v>
+      </c>
+      <c r="B116">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>29</v>
+      </c>
+      <c r="B117">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>30</v>
+      </c>
+      <c r="B118">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>31</v>
+      </c>
+      <c r="B119">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>32</v>
+      </c>
+      <c r="B120">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>33</v>
+      </c>
+      <c r="B121">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>34</v>
+      </c>
+      <c r="B122">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>35</v>
+      </c>
+      <c r="B123">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>36</v>
+      </c>
+      <c r="B124">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>37</v>
+      </c>
+      <c r="B125">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>38</v>
+      </c>
+      <c r="B126">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>39</v>
+      </c>
+      <c r="B127">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>